--- a/Class Documents/Sprint 3/TeamLeaderScrumMasterList.xlsx
+++ b/Class Documents/Sprint 3/TeamLeaderScrumMasterList.xlsx
@@ -34,19 +34,19 @@
     <t xml:space="preserve">Jake</t>
   </si>
   <si>
+    <t xml:space="preserve">Matt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRINT 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Will</t>
   </si>
   <si>
-    <t xml:space="preserve">SPRINT 2</t>
+    <t xml:space="preserve">SPRINT 3</t>
   </si>
   <si>
     <t xml:space="preserve">Nick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPRINT 3</t>
   </si>
   <si>
     <t xml:space="preserve">SPRINT 4</t>
@@ -150,10 +150,10 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
@@ -178,7 +178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
@@ -186,18 +186,18 @@
         <v>6</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -208,7 +208,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
